--- a/tests/test_xls/sheet_accounts/test_foreach/test_foreach_account_category/expected_result.xlsx
+++ b/tests/test_xls/sheet_accounts/test_foreach/test_foreach_account_category/expected_result.xlsx
@@ -523,7 +523,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43101</v>
+        <v>43104</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -550,7 +550,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43103</v>
+        <v>43101</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
@@ -669,7 +669,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" s="2" t="n">
-        <v>43102</v>
+        <v>43101</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>44926</v>
@@ -696,7 +696,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" s="2" t="n">
-        <v>43101</v>
+        <v>43102</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>44926</v>
